--- a/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000850</t>
+          <t>540009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合C</t>
+          <t>汇丰晋信消费红利股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.52</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>540009</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信消费红利股票</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.07</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -614,15 +664,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -637,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +716,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +756,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.15</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -706,26 +784,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>540003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>汇丰晋信动态策略混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>26.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +822,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>960003</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合H</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -762,25 +860,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>540003</t>
+          <t>960003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合A</t>
+          <t>汇丰晋信动态策略混合H</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>88.18</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.93</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -895,4 +896,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
@@ -920,12 +920,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -904,7 +905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,17 +916,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -935,14 +956,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.64</v>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -951,13 +994,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,245 +453,217 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000849</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2844</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>540009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信消费红利股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0957</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000850</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004212</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融量化智选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004783</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融量化智选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+      <c r="D4" t="n">
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -899,218 +871,246 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>910021</t>
+          <t>000849</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金A</t>
+          <t>汇丰晋信双核策略混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>84.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1862</t>
+          <t>0.2844</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011313</t>
+          <t>540009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金B</t>
+          <t>汇丰晋信消费红利股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>85.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0957</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.64</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>910021</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金A</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1862</t>
+          <t>0.1281</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011313</t>
+          <t>005125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金B</t>
+          <t>华宝标普中国A股红利机会指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0534</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -664,6 +681,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -871,7 +1020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600810-神马股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.64</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -615,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1281</t>
+          <t>0.1711</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -653,26 +670,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0534</t>
+          <t>0.0513</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -737,36 +754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>910021</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金A</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1862</t>
+          <t>0.1281</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -775,36 +792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011313</t>
+          <t>005125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金B</t>
+          <t>华宝标普中国A股红利机会指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0534</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -813,6 +830,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1020,7 +1169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
